--- a/tableau.xlsx
+++ b/tableau.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanb\Documents\CNAM_ENJMINN\L1\Conception sonore\Elfi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanb\Documents\GitHub\R-Blot-Elfi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1557F4-BC10-4893-A528-46B079478F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD47856-EE24-4BFD-93F4-F739A6246DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{C5C83683-90C8-46FA-AC98-584CE69B82C1}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{C5C83683-90C8-46FA-AC98-584CE69B82C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AFE2B2-3675-4D69-B96C-9C8C5AA82492}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
